--- a/Scom_Contacts.xlsx
+++ b/Scom_Contacts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -103,9 +103,6 @@
     <t>https://www.linkedin.com/in/ritvik-pandey-03/</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1pWG3o3iMb9_SAyYlZIWVxdzDL9-EcCPf/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Srivatsan Senthilkumar</t>
   </si>
   <si>
@@ -251,13 +248,19 @@
   </si>
   <si>
     <t>yashraj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tphiSG_58YU8uN6pRs6PAQ5JdVx1cUl0/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1C7kmUa6NGA_Hll3BWwG3baPtAag59fUI/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -324,6 +327,12 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -356,10 +365,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -402,8 +412,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -620,7 +632,7 @@
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -762,206 +774,209 @@
         <v>28</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="12.75">
       <c r="A6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="C6" s="13"/>
       <c r="F6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12.75">
       <c r="A7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D7" s="7">
         <v>8447785970</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="12.75">
       <c r="A8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D8" s="16">
         <v>7478070888</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="G8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="14.25">
       <c r="A9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="C9" s="9" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="18">
         <v>8873443070</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="G9" s="8" t="s">
         <v>48</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75">
       <c r="A10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="C10" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="7">
         <v>8670990949</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="G10" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="12.75">
       <c r="A11" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
         <v>9933900111</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75">
       <c r="A12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="C12" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="D12" s="7">
         <v>9096240787</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>65</v>
-      </c>
       <c r="G12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
         <v>77</v>
-      </c>
-      <c r="H12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I12" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75">
       <c r="A13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="D13" s="7">
         <v>7036060127</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75">
       <c r="A14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="F14" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="G14" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75">
@@ -994,32 +1009,31 @@
     <hyperlink ref="G4" r:id="rId8"/>
     <hyperlink ref="E5" r:id="rId9"/>
     <hyperlink ref="F5" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="F6" r:id="rId12"/>
-    <hyperlink ref="E7" r:id="rId13"/>
-    <hyperlink ref="F7" r:id="rId14"/>
-    <hyperlink ref="G7" r:id="rId15"/>
-    <hyperlink ref="E8" r:id="rId16"/>
-    <hyperlink ref="F8" r:id="rId17"/>
-    <hyperlink ref="G8" r:id="rId18"/>
-    <hyperlink ref="E9" r:id="rId19"/>
-    <hyperlink ref="F9" r:id="rId20"/>
-    <hyperlink ref="G9" r:id="rId21"/>
-    <hyperlink ref="E10" r:id="rId22"/>
-    <hyperlink ref="F10" r:id="rId23"/>
-    <hyperlink ref="G10" r:id="rId24"/>
-    <hyperlink ref="E11" r:id="rId25"/>
-    <hyperlink ref="F11" r:id="rId26"/>
-    <hyperlink ref="G11" r:id="rId27"/>
-    <hyperlink ref="E12" r:id="rId28"/>
-    <hyperlink ref="F12" r:id="rId29"/>
-    <hyperlink ref="E13" r:id="rId30"/>
-    <hyperlink ref="F13" r:id="rId31"/>
-    <hyperlink ref="G13" r:id="rId32"/>
-    <hyperlink ref="C14" r:id="rId33"/>
-    <hyperlink ref="E14" r:id="rId34"/>
-    <hyperlink ref="F14" r:id="rId35"/>
-    <hyperlink ref="G14" r:id="rId36"/>
+    <hyperlink ref="F6" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="F7" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="F8" r:id="rId15"/>
+    <hyperlink ref="G8" r:id="rId16"/>
+    <hyperlink ref="E9" r:id="rId17"/>
+    <hyperlink ref="F9" r:id="rId18"/>
+    <hyperlink ref="G9" r:id="rId19"/>
+    <hyperlink ref="E10" r:id="rId20"/>
+    <hyperlink ref="F10" r:id="rId21"/>
+    <hyperlink ref="G10" r:id="rId22"/>
+    <hyperlink ref="E11" r:id="rId23"/>
+    <hyperlink ref="F11" r:id="rId24"/>
+    <hyperlink ref="G11" r:id="rId25"/>
+    <hyperlink ref="E12" r:id="rId26"/>
+    <hyperlink ref="F12" r:id="rId27"/>
+    <hyperlink ref="E13" r:id="rId28"/>
+    <hyperlink ref="F13" r:id="rId29"/>
+    <hyperlink ref="G13" r:id="rId30"/>
+    <hyperlink ref="C14" r:id="rId31"/>
+    <hyperlink ref="E14" r:id="rId32"/>
+    <hyperlink ref="F14" r:id="rId33"/>
+    <hyperlink ref="G14" r:id="rId34"/>
+    <hyperlink ref="G6" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Scom_Contacts.xlsx
+++ b/Scom_Contacts.xlsx
@@ -631,8 +631,8 @@
   </sheetPr>
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -688,295 +688,295 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="25.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:27" ht="12.75">
+      <c r="A2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7">
+        <v>8447785970</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="12.75">
+      <c r="A3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="7">
+        <v>7478006888</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="12.75">
+      <c r="A4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="16">
+        <v>7478070888</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="25.5">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D5" s="7">
         <v>8420056709</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="25.5">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:27" ht="25.5">
+      <c r="A6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D6" s="23">
         <v>7477858668</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="12.75">
-      <c r="A4" s="7" t="s">
+    <row r="7" spans="1:27" ht="12.75">
+      <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D7" s="7">
         <v>7478055444</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="12.75">
-      <c r="A5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7478006888</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="12.75">
-      <c r="A6" s="11" t="s">
+    <row r="8" spans="1:27" ht="12.75">
+      <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="F6" s="8" t="s">
+      <c r="C8" s="13"/>
+      <c r="F8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G8" s="24" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="12.75">
-      <c r="A7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8447785970</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="12.75">
-      <c r="A8" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="16">
-        <v>7478070888</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="14.25">
+    <row r="9" spans="1:27" ht="12.75">
       <c r="A9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="18">
-        <v>8873443070</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>47</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="7">
+        <v>7036060127</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>69</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="12.75">
       <c r="A10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="7">
-        <v>8670990949</v>
+        <v>71</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="12.75">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="14.25">
       <c r="A11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9933900111</v>
+        <v>43</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="18">
+        <v>8873443070</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="12.75">
       <c r="A12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>9096240787</v>
+        <v>9933900111</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H12" t="s">
-        <v>76</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="12.75">
       <c r="A13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>66</v>
+        <v>60</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="7">
-        <v>7036060127</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>70</v>
+        <v>9096240787</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="12.75">
       <c r="A14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="7">
+        <v>8670990949</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="12.75">
@@ -988,7 +988,7 @@
       <c r="C16" s="13"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A6">
+  <conditionalFormatting sqref="A8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -999,41 +999,41 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="E3" r:id="rId3"/>
-    <hyperlink ref="F3" r:id="rId4"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="E4" r:id="rId6"/>
-    <hyperlink ref="F4" r:id="rId7"/>
-    <hyperlink ref="G4" r:id="rId8"/>
-    <hyperlink ref="E5" r:id="rId9"/>
-    <hyperlink ref="F5" r:id="rId10"/>
-    <hyperlink ref="F6" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="F7" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="F8" r:id="rId15"/>
-    <hyperlink ref="G8" r:id="rId16"/>
-    <hyperlink ref="E9" r:id="rId17"/>
-    <hyperlink ref="F9" r:id="rId18"/>
-    <hyperlink ref="G9" r:id="rId19"/>
-    <hyperlink ref="E10" r:id="rId20"/>
-    <hyperlink ref="F10" r:id="rId21"/>
-    <hyperlink ref="G10" r:id="rId22"/>
-    <hyperlink ref="E11" r:id="rId23"/>
-    <hyperlink ref="F11" r:id="rId24"/>
-    <hyperlink ref="G11" r:id="rId25"/>
-    <hyperlink ref="E12" r:id="rId26"/>
-    <hyperlink ref="F12" r:id="rId27"/>
-    <hyperlink ref="E13" r:id="rId28"/>
-    <hyperlink ref="F13" r:id="rId29"/>
-    <hyperlink ref="G13" r:id="rId30"/>
-    <hyperlink ref="C14" r:id="rId31"/>
-    <hyperlink ref="E14" r:id="rId32"/>
-    <hyperlink ref="F14" r:id="rId33"/>
-    <hyperlink ref="G14" r:id="rId34"/>
-    <hyperlink ref="G6" r:id="rId35"/>
+    <hyperlink ref="F5" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="E7" r:id="rId6"/>
+    <hyperlink ref="F7" r:id="rId7"/>
+    <hyperlink ref="G7" r:id="rId8"/>
+    <hyperlink ref="E3" r:id="rId9"/>
+    <hyperlink ref="F3" r:id="rId10"/>
+    <hyperlink ref="F8" r:id="rId11"/>
+    <hyperlink ref="E2" r:id="rId12"/>
+    <hyperlink ref="F2" r:id="rId13"/>
+    <hyperlink ref="E4" r:id="rId14"/>
+    <hyperlink ref="F4" r:id="rId15"/>
+    <hyperlink ref="G4" r:id="rId16"/>
+    <hyperlink ref="E11" r:id="rId17"/>
+    <hyperlink ref="F11" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="E14" r:id="rId20"/>
+    <hyperlink ref="F14" r:id="rId21"/>
+    <hyperlink ref="G14" r:id="rId22"/>
+    <hyperlink ref="E12" r:id="rId23"/>
+    <hyperlink ref="F12" r:id="rId24"/>
+    <hyperlink ref="G12" r:id="rId25"/>
+    <hyperlink ref="E13" r:id="rId26"/>
+    <hyperlink ref="F13" r:id="rId27"/>
+    <hyperlink ref="E9" r:id="rId28"/>
+    <hyperlink ref="F9" r:id="rId29"/>
+    <hyperlink ref="G9" r:id="rId30"/>
+    <hyperlink ref="C10" r:id="rId31"/>
+    <hyperlink ref="E10" r:id="rId32"/>
+    <hyperlink ref="F10" r:id="rId33"/>
+    <hyperlink ref="G10" r:id="rId34"/>
+    <hyperlink ref="G8" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
